--- a/Results/results_6bus_1000.xlsx
+++ b/Results/results_6bus_1000.xlsx
@@ -217,10 +217,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.39"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
